--- a/exe/TSV/Excel/W02_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/W02_Komano_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FE8933-610A-484A-AFDA-714A48B6800F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF0ECEB-915D-43B1-9056-638E35A1AA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="4425" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="4230" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W02_駒野駅_UIList" sheetId="1" r:id="rId1"/>
